--- a/BackTest/2020-01-23 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-23 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,19 @@
         <v>2774.858955389993</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>400.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>400.7</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,22 +785,23 @@
         <v>3294.858955389993</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="J12" t="n">
-        <v>398</v>
-      </c>
-      <c r="K12" t="n">
-        <v>398</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>400.7</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -856,26 +826,23 @@
         <v>4228.514655389993</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>398.9</v>
       </c>
       <c r="J13" t="n">
-        <v>398.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>398</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,26 +867,23 @@
         <v>4227.246155389993</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>403.5</v>
       </c>
       <c r="J14" t="n">
-        <v>403.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>398</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -944,26 +908,21 @@
         <v>3117.246155389993</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>401.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>398</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,26 +947,23 @@
         <v>3644.772555389993</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>395.6</v>
       </c>
       <c r="J16" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>398</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1032,26 +988,21 @@
         <v>3753.541955389993</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>396.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>398</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1076,26 +1027,23 @@
         <v>3827.226555389993</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>397</v>
       </c>
       <c r="J18" t="n">
-        <v>397</v>
-      </c>
-      <c r="K18" t="n">
-        <v>398</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1120,26 +1068,23 @@
         <v>1777.226555389993</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>399.9</v>
       </c>
       <c r="J19" t="n">
-        <v>399.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>398</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1164,26 +1109,21 @@
         <v>1777.226555389993</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>398</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1208,26 +1148,21 @@
         <v>-1627.780344610007</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>398</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1252,26 +1187,21 @@
         <v>4568.047455389993</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>391.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>398</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1296,26 +1226,21 @@
         <v>3995.829255389993</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>396.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>398</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1340,26 +1265,23 @@
         <v>4209.829255389993</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>392.9</v>
       </c>
       <c r="J24" t="n">
-        <v>392.9</v>
-      </c>
-      <c r="K24" t="n">
-        <v>398</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1384,26 +1306,23 @@
         <v>4209.829255389993</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="J25" t="n">
-        <v>395</v>
-      </c>
-      <c r="K25" t="n">
-        <v>398</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1428,26 +1347,23 @@
         <v>4209.829255389993</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="J26" t="n">
-        <v>395</v>
-      </c>
-      <c r="K26" t="n">
-        <v>398</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1472,26 +1388,23 @@
         <v>7577.495155389993</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="J27" t="n">
-        <v>395</v>
-      </c>
-      <c r="K27" t="n">
-        <v>398</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1516,26 +1429,23 @@
         <v>10057.49515538999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>399.8</v>
       </c>
       <c r="J28" t="n">
-        <v>399.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>398</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>400.7</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1562,22 +1472,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>398</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1604,22 +1511,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>398</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1646,22 +1550,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>398</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1688,22 +1589,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>398</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1730,22 +1628,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>398</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1772,22 +1667,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>398</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1814,22 +1706,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>398</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1856,22 +1745,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>398</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1898,22 +1784,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>398</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1938,24 +1821,21 @@
         <v>18172.36845538999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>398</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1.005731220364362</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1982,22 +1862,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>398</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2024,22 +1895,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>398</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2066,22 +1928,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>398</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2108,22 +1961,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>398</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2150,22 +1994,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>398</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2192,22 +2027,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>398</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2234,22 +2060,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>398</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2274,24 +2091,15 @@
         <v>20046.14545539</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>398</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2318,22 +2126,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>398</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2360,22 +2159,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>398</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2402,22 +2192,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>398</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2444,22 +2225,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>398</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2486,22 +2258,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>398</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2526,24 +2289,15 @@
         <v>19472.26405538999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>398</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2568,24 +2322,15 @@
         <v>20014.26405538999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>398</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2610,24 +2355,15 @@
         <v>19996.29405538999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>398</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2652,24 +2388,15 @@
         <v>19996.29405538999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>398</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2694,24 +2421,15 @@
         <v>16914.53575538999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>398</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2736,24 +2454,15 @@
         <v>17446.32855538999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>398</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2778,24 +2487,15 @@
         <v>17446.32855538999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>398</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2822,22 +2522,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>398</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2864,22 +2555,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>398</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2904,24 +2586,15 @@
         <v>32853.79005538999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>398</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2946,24 +2619,15 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>398</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2988,24 +2652,15 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>398</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3030,24 +2685,15 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>398</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3074,22 +2720,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>398</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3114,24 +2751,15 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>398</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3156,24 +2784,15 @@
         <v>47377.72415538999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>398</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3198,24 +2817,15 @@
         <v>44867.03745539</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>398</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1.025150753768844</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3242,16 +2852,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3278,16 +2885,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3314,16 +2918,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3350,16 +2951,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3386,16 +2984,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3422,16 +3017,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3458,16 +3050,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3494,16 +3083,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3528,18 +3114,15 @@
         <v>47497.17725539</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3566,16 +3149,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3602,16 +3182,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3638,16 +3215,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3674,16 +3248,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3710,16 +3281,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3746,16 +3314,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3782,16 +3347,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3816,18 +3378,15 @@
         <v>41588.21925538999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3854,16 +3413,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3888,18 +3444,15 @@
         <v>37240.17195539</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3926,16 +3479,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3960,18 +3510,15 @@
         <v>38734.17195539</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3998,16 +3545,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4032,18 +3576,15 @@
         <v>38664.02535539</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4070,16 +3611,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4104,18 +3642,15 @@
         <v>38637.60435538999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4142,16 +3677,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4176,18 +3708,15 @@
         <v>38515.65795538999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4214,16 +3743,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4250,16 +3776,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4286,16 +3809,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4322,16 +3842,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4358,16 +3875,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4392,18 +3906,15 @@
         <v>35706.42575539</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4430,16 +3941,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4464,18 +3972,15 @@
         <v>37655.06225539</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4502,16 +4007,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4536,18 +4038,15 @@
         <v>35464.67705539</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4574,16 +4073,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4610,16 +4106,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4646,16 +4139,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4680,20 +4170,17 @@
         <v>35388.57715539</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-23 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,10 +616,14 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>397</v>
+      </c>
+      <c r="J7" t="n">
+        <v>397</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -649,11 +653,19 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>397</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +694,19 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>397</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -748,7 +768,7 @@
         <v>2774.858955389993</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>400.7</v>
@@ -785,7 +805,7 @@
         <v>3294.858955389993</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>398</v>
@@ -826,7 +846,7 @@
         <v>4228.514655389993</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>398.9</v>
@@ -867,7 +887,7 @@
         <v>4227.246155389993</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>403.5</v>
@@ -947,7 +967,7 @@
         <v>3644.772555389993</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>395.6</v>
@@ -988,9 +1008,11 @@
         <v>3753.541955389993</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>396.9</v>
+      </c>
       <c r="J17" t="n">
         <v>400.7</v>
       </c>
@@ -1027,7 +1049,7 @@
         <v>3827.226555389993</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>397</v>
@@ -1068,7 +1090,7 @@
         <v>1777.226555389993</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>399.9</v>
@@ -1148,9 +1170,11 @@
         <v>-1627.780344610007</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>395.6</v>
+      </c>
       <c r="J21" t="n">
         <v>400.7</v>
       </c>
@@ -1265,11 +1289,9 @@
         <v>4209.829255389993</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>392.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>400.7</v>
       </c>
@@ -1306,11 +1328,9 @@
         <v>4209.829255389993</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>400.7</v>
       </c>
@@ -1347,11 +1367,9 @@
         <v>4209.829255389993</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>400.7</v>
       </c>
@@ -1388,11 +1406,9 @@
         <v>7577.495155389993</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>400.7</v>
       </c>
@@ -1429,11 +1445,9 @@
         <v>10057.49515538999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>399.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>400.7</v>
       </c>
@@ -1821,7 +1835,7 @@
         <v>18172.36845538999</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
@@ -1829,11 +1843,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.005731220364362</v>
+        <v>1</v>
       </c>
       <c r="M38" t="inlineStr"/>
     </row>
@@ -1863,8 +1877,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1896,8 +1916,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1929,8 +1955,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1962,8 +1994,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1995,8 +2033,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2028,8 +2072,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2061,8 +2111,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2091,11 +2147,17 @@
         <v>20046.14545539</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2127,8 +2189,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2160,8 +2228,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2193,8 +2267,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2226,8 +2306,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2259,8 +2345,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2289,11 +2381,17 @@
         <v>19472.26405538999</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2322,11 +2420,17 @@
         <v>20014.26405538999</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2355,11 +2459,17 @@
         <v>19996.29405538999</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2388,11 +2498,17 @@
         <v>19996.29405538999</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2421,11 +2537,17 @@
         <v>16914.53575538999</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2454,11 +2576,17 @@
         <v>17446.32855538999</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2487,11 +2615,17 @@
         <v>17446.32855538999</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2523,8 +2657,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2556,8 +2696,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2586,11 +2732,17 @@
         <v>32853.79005538999</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2619,11 +2771,17 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2652,11 +2810,17 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2685,11 +2849,17 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2721,8 +2891,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2751,11 +2927,17 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2784,11 +2966,17 @@
         <v>47377.72415538999</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2817,11 +3005,17 @@
         <v>44867.03745539</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2853,8 +3047,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2886,8 +3086,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2919,8 +3125,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2952,8 +3164,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2985,8 +3203,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3015,13 +3239,19 @@
         <v>47820.12725539</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>1.020455452957325</v>
       </c>
       <c r="M74" t="inlineStr"/>
     </row>
@@ -3048,7 +3278,7 @@
         <v>47497.17725539</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3081,7 +3311,7 @@
         <v>47497.17725539</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3114,7 +3344,7 @@
         <v>47497.17725539</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3147,7 +3377,7 @@
         <v>47457.97375539</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3180,7 +3410,7 @@
         <v>46379.46945539</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3213,7 +3443,7 @@
         <v>46379.46945539</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3246,7 +3476,7 @@
         <v>46462.86495539</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3279,7 +3509,7 @@
         <v>44258.34455538999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3312,7 +3542,7 @@
         <v>44105.23445539</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3345,7 +3575,7 @@
         <v>41105.23445539</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3378,7 +3608,7 @@
         <v>41588.21925538999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3411,7 +3641,7 @@
         <v>43869.95965539</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3444,7 +3674,7 @@
         <v>37240.17195539</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3477,7 +3707,7 @@
         <v>37494.17195539</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3510,7 +3740,7 @@
         <v>38734.17195539</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3543,7 +3773,7 @@
         <v>38589.24435538999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3576,7 +3806,7 @@
         <v>38664.02535539</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3609,7 +3839,7 @@
         <v>38724.02535539</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3642,7 +3872,7 @@
         <v>38637.60435538999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3708,7 +3938,7 @@
         <v>38515.65795538999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3741,7 +3971,7 @@
         <v>38515.65795538999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3906,7 +4136,7 @@
         <v>35706.42575539</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3972,7 +4202,7 @@
         <v>37655.06225539</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4038,7 +4268,7 @@
         <v>35464.67705539</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4170,7 +4400,7 @@
         <v>35388.57715539</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4181,6 +4411,6 @@
       <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-23 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,14 +616,10 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>397</v>
-      </c>
-      <c r="J7" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -653,19 +649,11 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>397</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -694,19 +682,11 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>397</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -768,14 +748,10 @@
         <v>2774.858955389993</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>400.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -805,19 +781,11 @@
         <v>3294.858955389993</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>398</v>
-      </c>
-      <c r="J12" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -846,19 +814,11 @@
         <v>4228.514655389993</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>398.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -887,19 +847,11 @@
         <v>4227.246155389993</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>403.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -928,17 +880,11 @@
         <v>3117.246155389993</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -967,19 +913,11 @@
         <v>3644.772555389993</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,19 +946,11 @@
         <v>3753.541955389993</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>396.9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1049,19 +979,11 @@
         <v>3827.226555389993</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>397</v>
-      </c>
-      <c r="J18" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1090,19 +1012,11 @@
         <v>1777.226555389993</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>399.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1134,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1170,19 +1078,11 @@
         <v>-1627.780344610007</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1214,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1253,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1292,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1331,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1370,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1409,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1448,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1487,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1526,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1565,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1604,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1643,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1682,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1721,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1760,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1799,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1838,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1877,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1916,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1955,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1994,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2033,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2072,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2111,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2150,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2189,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>400.7</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2225,15 +1969,15 @@
         <v>19130.08425539</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>400.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2267,9 +2011,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2306,9 +2048,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2345,9 +2085,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2384,9 +2122,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2423,9 +2159,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2462,9 +2196,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2501,9 +2233,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2540,9 +2270,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2579,9 +2307,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2618,9 +2344,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2657,9 +2381,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2696,9 +2418,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2735,9 +2455,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2774,9 +2492,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2813,9 +2529,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2852,9 +2566,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2891,9 +2603,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2930,9 +2640,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2969,9 +2677,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3008,9 +2714,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3047,9 +2751,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3086,9 +2788,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3125,9 +2825,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3164,9 +2862,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3203,9 +2899,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3239,19 +2933,17 @@
         <v>47820.12725539</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>400.7</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.020455452957325</v>
+        <v>1</v>
       </c>
       <c r="M74" t="inlineStr"/>
     </row>
@@ -3278,11 +2970,15 @@
         <v>47497.17725539</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3311,11 +3007,15 @@
         <v>47497.17725539</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3344,11 +3044,15 @@
         <v>47497.17725539</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3377,11 +3081,15 @@
         <v>47457.97375539</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3410,11 +3118,15 @@
         <v>46379.46945539</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3443,11 +3155,15 @@
         <v>46379.46945539</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3476,11 +3192,15 @@
         <v>46462.86495539</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3509,11 +3229,15 @@
         <v>44258.34455538999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3542,11 +3266,15 @@
         <v>44105.23445539</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3575,11 +3303,15 @@
         <v>41105.23445539</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3608,11 +3340,15 @@
         <v>41588.21925538999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3641,11 +3377,15 @@
         <v>43869.95965539</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3674,11 +3414,15 @@
         <v>37240.17195539</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3707,11 +3451,15 @@
         <v>37494.17195539</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3740,11 +3488,15 @@
         <v>38734.17195539</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3773,11 +3525,15 @@
         <v>38589.24435538999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3806,11 +3562,15 @@
         <v>38664.02535539</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3839,11 +3599,15 @@
         <v>38724.02535539</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3876,7 +3640,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3909,7 +3677,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3942,7 +3714,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3971,11 +3747,15 @@
         <v>38515.65795538999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4008,7 +3788,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4041,7 +3825,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4074,7 +3862,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4107,7 +3899,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4140,7 +3936,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4173,7 +3973,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4206,7 +4010,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4239,7 +4047,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4272,7 +4084,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4305,7 +4121,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4338,7 +4158,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4371,7 +4195,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4404,13 +4232,17 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
       <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-23 BackTest STRAT.xlsx
@@ -451,7 +451,7 @@
         <v>10139.59895538999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>10222.43545538999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>399.3</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>10224.05385538999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>400</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>3709.392655389994</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>401.9</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>2950.583655389994</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>397.9</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>397</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>400.7</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>400.7</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>400.7</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>2774.858955389993</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>400.7</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>3294.858955389993</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>398</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>4228.514655389993</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>398.9</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +913,17 @@
         <v>4227.246155389993</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>403.5</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +952,17 @@
         <v>3117.246155389993</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>401.7</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +991,17 @@
         <v>3644.772555389993</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>395.6</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1030,17 @@
         <v>3753.541955389993</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>396.9</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1069,17 @@
         <v>3827.226555389993</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>397</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1108,17 @@
         <v>1777.226555389993</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>399.9</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1147,17 @@
         <v>1777.226555389993</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>395.6</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1186,17 @@
         <v>-1627.780344610007</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>395.6</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1225,17 @@
         <v>4568.047455389993</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>391.6</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1268,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1305,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1342,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1379,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1416,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1453,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1490,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1527,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1564,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1601,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1638,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1675,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1712,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1749,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1786,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1823,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1860,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1897,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1934,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1971,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +2008,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2045,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2082,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2119,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2156,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,15 +2189,13 @@
         <v>19130.08425539</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>401.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2526,18 +2744,16 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -2563,15 +2779,11 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2604,11 +2816,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2641,11 +2849,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2678,11 +2882,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2711,15 +2911,11 @@
         <v>44867.03745539</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2748,15 +2944,11 @@
         <v>44867.03745539</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2785,15 +2977,11 @@
         <v>44867.03745539</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2826,11 +3014,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2863,11 +3047,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2896,15 +3076,11 @@
         <v>46704.02725539</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2933,15 +3109,11 @@
         <v>47820.12725539</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2970,15 +3142,11 @@
         <v>47497.17725539</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3007,15 +3175,11 @@
         <v>47497.17725539</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3044,15 +3208,11 @@
         <v>47497.17725539</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3081,15 +3241,11 @@
         <v>47457.97375539</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3122,11 +3278,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3159,11 +3311,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3196,11 +3344,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3233,11 +3377,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3270,11 +3410,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3307,11 +3443,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3344,11 +3476,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3381,11 +3509,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3418,11 +3542,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3455,11 +3575,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3492,11 +3608,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3529,11 +3641,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3566,11 +3674,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3603,11 +3707,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3640,11 +3740,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3677,11 +3773,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3714,11 +3806,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3839,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3788,11 +3872,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3825,11 +3905,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3862,11 +3938,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3899,11 +3971,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3936,11 +4004,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3973,11 +4037,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4010,11 +4070,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4047,11 +4103,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4084,11 +4136,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4121,11 +4169,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4158,11 +4202,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4195,11 +4235,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4232,11 +4268,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-23 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-23 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>115.2894</v>
       </c>
       <c r="G2" t="n">
-        <v>10139.59895538999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>82.8365</v>
       </c>
       <c r="G3" t="n">
-        <v>10222.43545538999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>399.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>1.6184</v>
       </c>
       <c r="G4" t="n">
-        <v>10224.05385538999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>6514.6612</v>
       </c>
       <c r="G5" t="n">
-        <v>3709.392655389994</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>401.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +563,15 @@
         <v>758.809</v>
       </c>
       <c r="G6" t="n">
-        <v>2950.583655389994</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>397.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +593,15 @@
         <v>6.2911</v>
       </c>
       <c r="G7" t="n">
-        <v>2956.874755389993</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +623,15 @@
         <v>88.02370000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>2956.874755389993</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>400.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +653,15 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>2956.874755389993</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>400.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +683,15 @@
         <v>363.7517</v>
       </c>
       <c r="G10" t="n">
-        <v>2956.874755389993</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>400.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +713,15 @@
         <v>182.0158</v>
       </c>
       <c r="G11" t="n">
-        <v>2774.858955389993</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>400.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,24 +743,19 @@
         <v>520</v>
       </c>
       <c r="G12" t="n">
-        <v>3294.858955389993</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="I12" t="n">
         <v>398</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,24 +777,23 @@
         <v>933.6557</v>
       </c>
       <c r="G13" t="n">
-        <v>4228.514655389993</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>398.9</v>
       </c>
       <c r="I13" t="n">
-        <v>398.9</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>398</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,24 +815,21 @@
         <v>1.2685</v>
       </c>
       <c r="G14" t="n">
-        <v>4227.246155389993</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>403.5</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>398</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -949,24 +851,21 @@
         <v>1110</v>
       </c>
       <c r="G15" t="n">
-        <v>3117.246155389993</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>401.7</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>398</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,24 +887,21 @@
         <v>527.5264</v>
       </c>
       <c r="G16" t="n">
-        <v>3644.772555389993</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>398</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1027,24 +923,21 @@
         <v>108.7694</v>
       </c>
       <c r="G17" t="n">
-        <v>3753.541955389993</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>396.9</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>398</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1066,24 +959,23 @@
         <v>73.6846</v>
       </c>
       <c r="G18" t="n">
-        <v>3827.226555389993</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>397</v>
       </c>
       <c r="I18" t="n">
-        <v>397</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>398</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1105,24 +997,21 @@
         <v>2050</v>
       </c>
       <c r="G19" t="n">
-        <v>1777.226555389993</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>399.9</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>398</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1144,24 +1033,21 @@
         <v>2488</v>
       </c>
       <c r="G20" t="n">
-        <v>1777.226555389993</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>398</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1183,24 +1069,21 @@
         <v>3405.0069</v>
       </c>
       <c r="G21" t="n">
-        <v>-1627.780344610007</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>398</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1222,24 +1105,21 @@
         <v>6195.8278</v>
       </c>
       <c r="G22" t="n">
-        <v>4568.047455389993</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>391.6</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>398</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1261,22 +1141,23 @@
         <v>572.2182</v>
       </c>
       <c r="G23" t="n">
-        <v>3995.829255389993</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>396.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>398</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1298,22 +1179,23 @@
         <v>214</v>
       </c>
       <c r="G24" t="n">
-        <v>4209.829255389993</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>392.9</v>
+      </c>
+      <c r="I24" t="n">
+        <v>398</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1335,22 +1217,21 @@
         <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>4209.829255389993</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>398</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1372,22 +1253,21 @@
         <v>10.0249</v>
       </c>
       <c r="G26" t="n">
-        <v>4209.829255389993</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>398</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1409,22 +1289,21 @@
         <v>3367.6659</v>
       </c>
       <c r="G27" t="n">
-        <v>7577.495155389993</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>398</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1446,22 +1325,21 @@
         <v>2480</v>
       </c>
       <c r="G28" t="n">
-        <v>10057.49515538999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>398</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1483,22 +1361,21 @@
         <v>3446.2351</v>
       </c>
       <c r="G29" t="n">
-        <v>13503.73025538999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>398</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1520,22 +1397,21 @@
         <v>3000</v>
       </c>
       <c r="G30" t="n">
-        <v>16503.73025538999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>398</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1557,22 +1433,21 @@
         <v>3446.2351</v>
       </c>
       <c r="G31" t="n">
-        <v>13057.49515538999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>398</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1594,22 +1469,21 @@
         <v>37</v>
       </c>
       <c r="G32" t="n">
-        <v>13094.49515538999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>398</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1631,22 +1505,21 @@
         <v>1168.4201</v>
       </c>
       <c r="G33" t="n">
-        <v>11926.07505538999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>398</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1668,22 +1541,21 @@
         <v>702.2106</v>
       </c>
       <c r="G34" t="n">
-        <v>12628.28565538999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>398</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1705,22 +1577,21 @@
         <v>2381</v>
       </c>
       <c r="G35" t="n">
-        <v>15009.28565538999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>398</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1742,22 +1613,21 @@
         <v>1940</v>
       </c>
       <c r="G36" t="n">
-        <v>16949.28565538999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>398</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1779,22 +1649,21 @@
         <v>247.2232</v>
       </c>
       <c r="G37" t="n">
-        <v>16949.28565538999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>398</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1816,22 +1685,21 @@
         <v>1223.0828</v>
       </c>
       <c r="G38" t="n">
-        <v>18172.36845538999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>398</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1853,22 +1721,21 @@
         <v>504.1512</v>
       </c>
       <c r="G39" t="n">
-        <v>18172.36845538999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>398</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1890,22 +1757,21 @@
         <v>385.2913</v>
       </c>
       <c r="G40" t="n">
-        <v>18172.36845538999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>398</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1927,22 +1793,21 @@
         <v>2550.128</v>
       </c>
       <c r="G41" t="n">
-        <v>20722.49645539</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>398</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1964,22 +1829,21 @@
         <v>610.1</v>
       </c>
       <c r="G42" t="n">
-        <v>20112.39645539</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>398</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2001,22 +1865,21 @@
         <v>132.1563</v>
       </c>
       <c r="G43" t="n">
-        <v>20112.39645539</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>398</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2038,22 +1901,21 @@
         <v>409.5</v>
       </c>
       <c r="G44" t="n">
-        <v>20521.89645539</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>398</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2075,22 +1937,21 @@
         <v>879.6361000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>20521.89645539</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>398</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2112,22 +1973,21 @@
         <v>475.751</v>
       </c>
       <c r="G46" t="n">
-        <v>20046.14545539</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>398</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2149,22 +2009,21 @@
         <v>475.7511</v>
       </c>
       <c r="G47" t="n">
-        <v>20046.14545539</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>398</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2186,22 +2045,21 @@
         <v>916.0612</v>
       </c>
       <c r="G48" t="n">
-        <v>19130.08425539</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>398</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2223,22 +2081,21 @@
         <v>100.1072</v>
       </c>
       <c r="G49" t="n">
-        <v>19230.19145539</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>398</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2260,22 +2117,21 @@
         <v>242.0726</v>
       </c>
       <c r="G50" t="n">
-        <v>19472.26405538999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>398</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2297,22 +2153,21 @@
         <v>1129</v>
       </c>
       <c r="G51" t="n">
-        <v>19472.26405538999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>398</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2334,22 +2189,21 @@
         <v>263.4719</v>
       </c>
       <c r="G52" t="n">
-        <v>19472.26405538999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>398</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2371,22 +2225,21 @@
         <v>542</v>
       </c>
       <c r="G53" t="n">
-        <v>20014.26405538999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>398</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2408,22 +2261,21 @@
         <v>17.97</v>
       </c>
       <c r="G54" t="n">
-        <v>19996.29405538999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>398</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2445,22 +2297,21 @@
         <v>0.03</v>
       </c>
       <c r="G55" t="n">
-        <v>19996.29405538999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>398</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2482,22 +2333,21 @@
         <v>3081.7583</v>
       </c>
       <c r="G56" t="n">
-        <v>16914.53575538999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>398</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2519,22 +2369,21 @@
         <v>531.7928000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>17446.32855538999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>398</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2556,22 +2405,21 @@
         <v>496.2</v>
       </c>
       <c r="G58" t="n">
-        <v>17446.32855538999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>398</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2593,22 +2441,21 @@
         <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>17449.32855538999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>398</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2630,22 +2477,21 @@
         <v>19.8957</v>
       </c>
       <c r="G60" t="n">
-        <v>17449.32855538999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>398</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2667,22 +2513,21 @@
         <v>15404.4615</v>
       </c>
       <c r="G61" t="n">
-        <v>32853.79005538999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>398</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2704,22 +2549,21 @@
         <v>150.92</v>
       </c>
       <c r="G62" t="n">
-        <v>32702.87005538999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>398</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2741,20 +2585,21 @@
         <v>869.1002999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>32702.87005538999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>398</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
       </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2776,18 +2621,21 @@
         <v>1046.537</v>
       </c>
       <c r="G64" t="n">
-        <v>32702.87005538999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>398</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2809,18 +2657,21 @@
         <v>2290.6765</v>
       </c>
       <c r="G65" t="n">
-        <v>32702.87005538999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>398</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2842,18 +2693,21 @@
         <v>234.83</v>
       </c>
       <c r="G66" t="n">
-        <v>32702.87005538999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>398</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2875,18 +2729,21 @@
         <v>14674.8541</v>
       </c>
       <c r="G67" t="n">
-        <v>47377.72415538999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>398</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1.027663316582915</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2908,18 +2765,15 @@
         <v>2510.6867</v>
       </c>
       <c r="G68" t="n">
-        <v>44867.03745539</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2941,18 +2795,15 @@
         <v>211.4449</v>
       </c>
       <c r="G69" t="n">
-        <v>44867.03745539</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2974,18 +2825,15 @@
         <v>596</v>
       </c>
       <c r="G70" t="n">
-        <v>44867.03745539</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3007,18 +2855,15 @@
         <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>44767.03745539</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3040,18 +2885,15 @@
         <v>1936.9898</v>
       </c>
       <c r="G72" t="n">
-        <v>46704.02725539</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3073,18 +2915,15 @@
         <v>3344.3847</v>
       </c>
       <c r="G73" t="n">
-        <v>46704.02725539</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3106,18 +2945,15 @@
         <v>1116.1</v>
       </c>
       <c r="G74" t="n">
-        <v>47820.12725539</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3139,18 +2975,15 @@
         <v>322.95</v>
       </c>
       <c r="G75" t="n">
-        <v>47497.17725539</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3172,18 +3005,15 @@
         <v>678.8567</v>
       </c>
       <c r="G76" t="n">
-        <v>47497.17725539</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3205,18 +3035,15 @@
         <v>1129</v>
       </c>
       <c r="G77" t="n">
-        <v>47497.17725539</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3238,18 +3065,15 @@
         <v>39.2035</v>
       </c>
       <c r="G78" t="n">
-        <v>47457.97375539</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3271,18 +3095,15 @@
         <v>1078.5043</v>
       </c>
       <c r="G79" t="n">
-        <v>46379.46945539</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3304,18 +3125,15 @@
         <v>1921.4957</v>
       </c>
       <c r="G80" t="n">
-        <v>46379.46945539</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3337,18 +3155,15 @@
         <v>83.3955</v>
       </c>
       <c r="G81" t="n">
-        <v>46462.86495539</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3370,18 +3185,15 @@
         <v>2204.5204</v>
       </c>
       <c r="G82" t="n">
-        <v>44258.34455538999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3403,18 +3215,15 @@
         <v>153.1101</v>
       </c>
       <c r="G83" t="n">
-        <v>44105.23445539</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3436,18 +3245,15 @@
         <v>3000</v>
       </c>
       <c r="G84" t="n">
-        <v>41105.23445539</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3469,18 +3275,15 @@
         <v>482.9848</v>
       </c>
       <c r="G85" t="n">
-        <v>41588.21925538999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3502,18 +3305,15 @@
         <v>2281.7404</v>
       </c>
       <c r="G86" t="n">
-        <v>43869.95965539</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3535,18 +3335,15 @@
         <v>6629.7877</v>
       </c>
       <c r="G87" t="n">
-        <v>37240.17195539</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3568,18 +3365,15 @@
         <v>254</v>
       </c>
       <c r="G88" t="n">
-        <v>37494.17195539</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3601,18 +3395,15 @@
         <v>1240</v>
       </c>
       <c r="G89" t="n">
-        <v>38734.17195539</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3634,18 +3425,15 @@
         <v>144.9276</v>
       </c>
       <c r="G90" t="n">
-        <v>38589.24435538999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3667,18 +3455,19 @@
         <v>74.78100000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>38664.02535539</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>394.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>394.5</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3700,18 +3489,23 @@
         <v>60</v>
       </c>
       <c r="G92" t="n">
-        <v>38724.02535539</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>395.6</v>
+      </c>
+      <c r="I92" t="n">
+        <v>394.5</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3733,18 +3527,23 @@
         <v>86.42100000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>38637.60435538999</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>398.6</v>
+      </c>
+      <c r="I93" t="n">
+        <v>394.5</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3766,18 +3565,19 @@
         <v>95.75360000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>38733.35795538999</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>395.5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>395.5</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3799,18 +3599,21 @@
         <v>217.7</v>
       </c>
       <c r="G95" t="n">
-        <v>38515.65795538999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3832,18 +3635,21 @@
         <v>94.0282</v>
       </c>
       <c r="G96" t="n">
-        <v>38515.65795538999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3865,18 +3671,15 @@
         <v>76.0228</v>
       </c>
       <c r="G97" t="n">
-        <v>38515.65795538999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3898,18 +3701,21 @@
         <v>523.4638</v>
       </c>
       <c r="G98" t="n">
-        <v>37992.19415539</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>397.6</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3931,18 +3737,21 @@
         <v>261.3</v>
       </c>
       <c r="G99" t="n">
-        <v>38253.49415539</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>397.4</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3964,18 +3773,21 @@
         <v>329.8382</v>
       </c>
       <c r="G100" t="n">
-        <v>37923.65595539</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>397.5</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3997,18 +3809,21 @@
         <v>2217.2302</v>
       </c>
       <c r="G101" t="n">
-        <v>35706.42575539</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4030,18 +3845,21 @@
         <v>151.9</v>
       </c>
       <c r="G102" t="n">
-        <v>35858.32575539</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>395.4</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4063,18 +3881,21 @@
         <v>1796.7365</v>
       </c>
       <c r="G103" t="n">
-        <v>37655.06225539</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>395.8</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4096,18 +3917,21 @@
         <v>1422.5227</v>
       </c>
       <c r="G104" t="n">
-        <v>36232.53955539</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>400.7</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4129,18 +3953,19 @@
         <v>767.8625</v>
       </c>
       <c r="G105" t="n">
-        <v>35464.67705539</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4162,18 +3987,19 @@
         <v>108.0999</v>
       </c>
       <c r="G106" t="n">
-        <v>35356.57715539</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4195,18 +4021,19 @@
         <v>83.98569999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>35356.57715539</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4228,18 +4055,19 @@
         <v>24</v>
       </c>
       <c r="G108" t="n">
-        <v>35356.57715539</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4261,18 +4089,19 @@
         <v>32</v>
       </c>
       <c r="G109" t="n">
-        <v>35388.57715539</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
